--- a/Assets/Scripts/Excel/DialogDB.xlsx
+++ b/Assets/Scripts/Excel/DialogDB.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
